--- a/data/pca/factorExposure/factorExposure_2016-12-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01665823852220689</v>
+        <v>0.01406620388365984</v>
       </c>
       <c r="C2">
-        <v>-0.03663747366031296</v>
+        <v>0.04017976124147782</v>
       </c>
       <c r="D2">
-        <v>-0.03063756391037378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03232847034628461</v>
+      </c>
+      <c r="E2">
+        <v>0.05332957295403812</v>
+      </c>
+      <c r="F2">
+        <v>-0.01626199832192057</v>
+      </c>
+      <c r="G2">
+        <v>-0.1025954196337086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06671885401888152</v>
+        <v>0.03605076809618393</v>
       </c>
       <c r="C3">
-        <v>-0.1028187840820133</v>
+        <v>0.09276729042826888</v>
       </c>
       <c r="D3">
-        <v>-0.02055779632586861</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01927646561087546</v>
+      </c>
+      <c r="E3">
+        <v>0.1015284075525227</v>
+      </c>
+      <c r="F3">
+        <v>-0.02786885665008174</v>
+      </c>
+      <c r="G3">
+        <v>-0.1070282357182088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0669773508526115</v>
+        <v>0.05543988566523986</v>
       </c>
       <c r="C4">
-        <v>-0.06049632044788617</v>
+        <v>0.05741881602550311</v>
       </c>
       <c r="D4">
-        <v>-0.02574903616846187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02713779656330297</v>
+      </c>
+      <c r="E4">
+        <v>0.05362939121936546</v>
+      </c>
+      <c r="F4">
+        <v>-0.006646787686348806</v>
+      </c>
+      <c r="G4">
+        <v>-0.09192355628377398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02329397122457847</v>
+        <v>0.03409801931244471</v>
       </c>
       <c r="C6">
-        <v>-0.05338375778712042</v>
+        <v>0.04028367453020808</v>
       </c>
       <c r="D6">
-        <v>-0.02276798970176267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02012200414725129</v>
+      </c>
+      <c r="E6">
+        <v>0.06076143891844982</v>
+      </c>
+      <c r="F6">
+        <v>-0.009842897305994714</v>
+      </c>
+      <c r="G6">
+        <v>-0.08204059803206515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02024672289461616</v>
+        <v>0.02029468044440155</v>
       </c>
       <c r="C7">
-        <v>-0.04103142709013477</v>
+        <v>0.03320048602425713</v>
       </c>
       <c r="D7">
-        <v>-0.01760444368424396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01590028248349321</v>
+      </c>
+      <c r="E7">
+        <v>0.02780908550262141</v>
+      </c>
+      <c r="F7">
+        <v>0.001855263354006676</v>
+      </c>
+      <c r="G7">
+        <v>-0.1220504411733406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.002406906546709805</v>
+        <v>0.004904477581145447</v>
       </c>
       <c r="C8">
-        <v>-0.009617209625802576</v>
+        <v>0.01999889232200885</v>
       </c>
       <c r="D8">
-        <v>-0.00428937504241112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004886820770409098</v>
+      </c>
+      <c r="E8">
+        <v>0.03657451154001511</v>
+      </c>
+      <c r="F8">
+        <v>-0.006130020822981641</v>
+      </c>
+      <c r="G8">
+        <v>-0.06681953699917717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0295300656460839</v>
+        <v>0.034054412376161</v>
       </c>
       <c r="C9">
-        <v>-0.04141023014694915</v>
+        <v>0.04359216567976783</v>
       </c>
       <c r="D9">
-        <v>-0.01839907295357608</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01788018782077824</v>
+      </c>
+      <c r="E9">
+        <v>0.03722448144314508</v>
+      </c>
+      <c r="F9">
+        <v>-0.004476027024672554</v>
+      </c>
+      <c r="G9">
+        <v>-0.09782383189150165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07564253679340557</v>
+        <v>0.0950735231938173</v>
       </c>
       <c r="C10">
-        <v>0.1883039259444402</v>
+        <v>-0.194650353066271</v>
       </c>
       <c r="D10">
-        <v>0.0543743839871564</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0152628326865659</v>
+      </c>
+      <c r="E10">
+        <v>0.01586044009210192</v>
+      </c>
+      <c r="F10">
+        <v>-0.02969334532609788</v>
+      </c>
+      <c r="G10">
+        <v>-0.05325589102457202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04016352900750258</v>
+        <v>0.03573620242748483</v>
       </c>
       <c r="C11">
-        <v>-0.05350164916269926</v>
+        <v>0.05115512573528284</v>
       </c>
       <c r="D11">
-        <v>-0.005780372596815343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.003250408006147416</v>
+      </c>
+      <c r="E11">
+        <v>0.02796476657653431</v>
+      </c>
+      <c r="F11">
+        <v>0.0140533881079856</v>
+      </c>
+      <c r="G11">
+        <v>-0.07437667771886995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03759533950307754</v>
+        <v>0.03709524816637102</v>
       </c>
       <c r="C12">
-        <v>-0.04417928105359326</v>
+        <v>0.04534005429286848</v>
       </c>
       <c r="D12">
-        <v>-0.009470785931889429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.007529574324482503</v>
+      </c>
+      <c r="E12">
+        <v>0.01906740326977957</v>
+      </c>
+      <c r="F12">
+        <v>0.005049898484604481</v>
+      </c>
+      <c r="G12">
+        <v>-0.07328445317764741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0100794542282747</v>
+        <v>0.01063400036496217</v>
       </c>
       <c r="C13">
-        <v>-0.03082438958467344</v>
+        <v>0.03469743869066347</v>
       </c>
       <c r="D13">
-        <v>-0.0278244288054496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03031805184429451</v>
+      </c>
+      <c r="E13">
+        <v>0.06176707793788661</v>
+      </c>
+      <c r="F13">
+        <v>-0.01946929922652117</v>
+      </c>
+      <c r="G13">
+        <v>-0.1296012787022847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007560985402287995</v>
+        <v>0.008382749259716131</v>
       </c>
       <c r="C14">
-        <v>-0.02584604618956842</v>
+        <v>0.02493486555764409</v>
       </c>
       <c r="D14">
-        <v>-0.01193785943219734</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01218998243636173</v>
+      </c>
+      <c r="E14">
+        <v>0.02292260905871331</v>
+      </c>
+      <c r="F14">
+        <v>-0.007247418551554839</v>
+      </c>
+      <c r="G14">
+        <v>-0.1141165407476665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03468269065244408</v>
+        <v>0.03462260342815641</v>
       </c>
       <c r="C16">
-        <v>-0.03971432655163991</v>
+        <v>0.04369656158469228</v>
       </c>
       <c r="D16">
-        <v>-0.003878938780680168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002952675580938372</v>
+      </c>
+      <c r="E16">
+        <v>0.02457682896848009</v>
+      </c>
+      <c r="F16">
+        <v>-0.003209882029397859</v>
+      </c>
+      <c r="G16">
+        <v>-0.08129977130092343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03009178005889113</v>
+        <v>0.01760625129916124</v>
       </c>
       <c r="C19">
-        <v>-0.05275796205024796</v>
+        <v>0.04704118421614728</v>
       </c>
       <c r="D19">
-        <v>-0.020041281976679</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02335311317615499</v>
+      </c>
+      <c r="E19">
+        <v>0.1001437918039756</v>
+      </c>
+      <c r="F19">
+        <v>-0.0202883603606792</v>
+      </c>
+      <c r="G19">
+        <v>-0.1347043149090057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01319318047297295</v>
+        <v>0.01501136958189783</v>
       </c>
       <c r="C20">
-        <v>-0.04055490904453393</v>
+        <v>0.03540329148078603</v>
       </c>
       <c r="D20">
-        <v>-0.01786960014717052</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.016381190022241</v>
+      </c>
+      <c r="E20">
+        <v>0.04683124497886865</v>
+      </c>
+      <c r="F20">
+        <v>-0.02999551242881954</v>
+      </c>
+      <c r="G20">
+        <v>-0.1059066611389641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.005615191168051737</v>
+        <v>0.006198384385363742</v>
       </c>
       <c r="C21">
-        <v>-0.03302457748595449</v>
+        <v>0.03247997151387656</v>
       </c>
       <c r="D21">
-        <v>-0.02021228502016739</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02272613319230101</v>
+      </c>
+      <c r="E21">
+        <v>0.06689732735651412</v>
+      </c>
+      <c r="F21">
+        <v>-0.02082170220769841</v>
+      </c>
+      <c r="G21">
+        <v>-0.1487658591637493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0006864844584975504</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.008258266697141789</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003143549117885043</v>
+      </c>
+      <c r="E22">
+        <v>0.02231883080725606</v>
+      </c>
+      <c r="F22">
+        <v>0.003305608127081823</v>
+      </c>
+      <c r="G22">
+        <v>-0.005872418788136307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0006997511483741091</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.008239596527670517</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003127117312611331</v>
+      </c>
+      <c r="E23">
+        <v>0.02215874180559079</v>
+      </c>
+      <c r="F23">
+        <v>0.003005356816632845</v>
+      </c>
+      <c r="G23">
+        <v>-0.005696700850536715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02794464869843132</v>
+        <v>0.03049792444760312</v>
       </c>
       <c r="C24">
-        <v>-0.04672506756579044</v>
+        <v>0.04891712555378366</v>
       </c>
       <c r="D24">
-        <v>-0.01101452282394967</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.008122958328808333</v>
+      </c>
+      <c r="E24">
+        <v>0.02315820745647769</v>
+      </c>
+      <c r="F24">
+        <v>0.006120548169971372</v>
+      </c>
+      <c r="G24">
+        <v>-0.08120505830822707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04686066406586403</v>
+        <v>0.04312203061127146</v>
       </c>
       <c r="C25">
-        <v>-0.05187166937155446</v>
+        <v>0.05547895264073746</v>
       </c>
       <c r="D25">
-        <v>-0.01466410313643522</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01216136141113577</v>
+      </c>
+      <c r="E25">
+        <v>0.01542257320955881</v>
+      </c>
+      <c r="F25">
+        <v>0.004941661599555647</v>
+      </c>
+      <c r="G25">
+        <v>-0.08852931331254726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.004248692876065484</v>
+        <v>0.01405500050097563</v>
       </c>
       <c r="C26">
-        <v>-0.007711944853659904</v>
+        <v>0.009424186391576203</v>
       </c>
       <c r="D26">
-        <v>-0.02392996308304913</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02484594275967515</v>
+      </c>
+      <c r="E26">
+        <v>0.01628325306411498</v>
+      </c>
+      <c r="F26">
+        <v>-0.007231640947002273</v>
+      </c>
+      <c r="G26">
+        <v>-0.08479281379793327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09255589058940425</v>
+        <v>0.1238581655680164</v>
       </c>
       <c r="C28">
-        <v>0.2209239756950903</v>
+        <v>-0.2454878199624735</v>
       </c>
       <c r="D28">
-        <v>0.04947024445808926</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006797960809635625</v>
+      </c>
+      <c r="E28">
+        <v>-0.003809528662031033</v>
+      </c>
+      <c r="F28">
+        <v>-0.03092777520294943</v>
+      </c>
+      <c r="G28">
+        <v>-0.05075576969636978</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0124074547273737</v>
+        <v>0.00750447329726116</v>
       </c>
       <c r="C29">
-        <v>-0.01854790106942929</v>
+        <v>0.02018073597140529</v>
       </c>
       <c r="D29">
-        <v>-0.009305000910086451</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01087003107894608</v>
+      </c>
+      <c r="E29">
+        <v>0.01432495862154696</v>
+      </c>
+      <c r="F29">
+        <v>-0.01061757978494626</v>
+      </c>
+      <c r="G29">
+        <v>-0.1016929999319735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03844594707503761</v>
+        <v>0.03896272333060877</v>
       </c>
       <c r="C30">
-        <v>-0.0711160127512751</v>
+        <v>0.06342999454787097</v>
       </c>
       <c r="D30">
-        <v>-0.03387317100622925</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03259511349019262</v>
+      </c>
+      <c r="E30">
+        <v>0.08405063938341191</v>
+      </c>
+      <c r="F30">
+        <v>0.01779944057123625</v>
+      </c>
+      <c r="G30">
+        <v>-0.1181260702633274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04112611202633779</v>
+        <v>0.0553306732401754</v>
       </c>
       <c r="C31">
-        <v>-0.02466863178558863</v>
+        <v>0.03821432859780016</v>
       </c>
       <c r="D31">
-        <v>-0.004625459276794622</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004479342673384996</v>
+      </c>
+      <c r="E31">
+        <v>0.0009805887256380684</v>
+      </c>
+      <c r="F31">
+        <v>-0.03457881274193628</v>
+      </c>
+      <c r="G31">
+        <v>-0.09293577102079245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.01251714266495872</v>
+        <v>0.002875576760798762</v>
       </c>
       <c r="C32">
-        <v>-0.03686060475890059</v>
+        <v>0.02131961700974039</v>
       </c>
       <c r="D32">
-        <v>0.001169796772437679</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0007354553438561653</v>
+      </c>
+      <c r="E32">
+        <v>0.05248054228132824</v>
+      </c>
+      <c r="F32">
+        <v>0.01918868380462238</v>
+      </c>
+      <c r="G32">
+        <v>-0.06846002145974821</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03051528809500385</v>
+        <v>0.02620628931830864</v>
       </c>
       <c r="C33">
-        <v>-0.05225760173977079</v>
+        <v>0.04605815375506458</v>
       </c>
       <c r="D33">
-        <v>-0.01806961209501861</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01903529588957823</v>
+      </c>
+      <c r="E33">
+        <v>0.06877041560959225</v>
+      </c>
+      <c r="F33">
+        <v>-0.002940043699725411</v>
+      </c>
+      <c r="G33">
+        <v>-0.155100069556201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05373685316124076</v>
+        <v>0.0410847416713171</v>
       </c>
       <c r="C34">
-        <v>-0.05270392080647702</v>
+        <v>0.05913538692394057</v>
       </c>
       <c r="D34">
-        <v>0.002723263656904089</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.003530989310228682</v>
+      </c>
+      <c r="E34">
+        <v>0.0218855576917095</v>
+      </c>
+      <c r="F34">
+        <v>0.01988174725282391</v>
+      </c>
+      <c r="G34">
+        <v>-0.07665978226663003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008348515817065621</v>
+        <v>0.01517242205081821</v>
       </c>
       <c r="C36">
-        <v>-0.003297780480469853</v>
+        <v>0.005574108936508701</v>
       </c>
       <c r="D36">
-        <v>-0.01101458019810385</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01400819530834492</v>
+      </c>
+      <c r="E36">
+        <v>0.02011488917726205</v>
+      </c>
+      <c r="F36">
+        <v>-0.01030528941807599</v>
+      </c>
+      <c r="G36">
+        <v>-0.09505905659369877</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03454786482395442</v>
+        <v>0.03040599319992085</v>
       </c>
       <c r="C38">
-        <v>-0.0223599337829022</v>
+        <v>0.02271815892109888</v>
       </c>
       <c r="D38">
-        <v>0.008285258631606049</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.006115782541251846</v>
+      </c>
+      <c r="E38">
+        <v>0.02004188883315727</v>
+      </c>
+      <c r="F38">
+        <v>-0.01545096052551983</v>
+      </c>
+      <c r="G38">
+        <v>-0.0904213412578176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.0371166471031541</v>
+        <v>0.03682369750628754</v>
       </c>
       <c r="C39">
-        <v>-0.08336026219178262</v>
+        <v>0.07474100765352767</v>
       </c>
       <c r="D39">
-        <v>-0.02070021662310471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01400904034540521</v>
+      </c>
+      <c r="E39">
+        <v>0.04494310281625806</v>
+      </c>
+      <c r="F39">
+        <v>0.01649100349220476</v>
+      </c>
+      <c r="G39">
+        <v>-0.09092494702169868</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01715616528294882</v>
+        <v>0.01599026502471598</v>
       </c>
       <c r="C40">
-        <v>-0.02472053619303274</v>
+        <v>0.0329679383462356</v>
       </c>
       <c r="D40">
-        <v>-0.01390983328445856</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01596978895699886</v>
+      </c>
+      <c r="E40">
+        <v>0.03390467713619533</v>
+      </c>
+      <c r="F40">
+        <v>-0.02963701281079785</v>
+      </c>
+      <c r="G40">
+        <v>-0.1121403719248032</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.0101404537437221</v>
+        <v>0.01885119669967271</v>
       </c>
       <c r="C41">
-        <v>0.002395002366430915</v>
+        <v>-0.00189593055146191</v>
       </c>
       <c r="D41">
-        <v>-0.002098873592018043</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.005863253739696016</v>
+      </c>
+      <c r="E41">
+        <v>0.01635747050170163</v>
+      </c>
+      <c r="F41">
+        <v>-0.01637876911062719</v>
+      </c>
+      <c r="G41">
+        <v>-0.08967100431242171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.0132388614358432</v>
+        <v>0.005017160703646556</v>
       </c>
       <c r="C42">
-        <v>-0.03092784029954198</v>
+        <v>0.02535975466355135</v>
       </c>
       <c r="D42">
-        <v>-0.09379407186354016</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08351567977086101</v>
+      </c>
+      <c r="E42">
+        <v>-0.01144659897504091</v>
+      </c>
+      <c r="F42">
+        <v>-0.03146547680351346</v>
+      </c>
+      <c r="G42">
+        <v>0.01935574046163637</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0296514360207734</v>
+        <v>0.03336533012432282</v>
       </c>
       <c r="C43">
-        <v>-0.008576860675015141</v>
+        <v>0.01118526722966244</v>
       </c>
       <c r="D43">
-        <v>-0.00213899506982569</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.007607170373488039</v>
+      </c>
+      <c r="E43">
+        <v>0.0352326138710872</v>
+      </c>
+      <c r="F43">
+        <v>-0.01440481242383314</v>
+      </c>
+      <c r="G43">
+        <v>-0.11530629770159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02057792815794938</v>
+        <v>0.01391872874543996</v>
       </c>
       <c r="C44">
-        <v>-0.0539478376859123</v>
+        <v>0.04996712079444659</v>
       </c>
       <c r="D44">
-        <v>-0.01128775120682209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.009097694370888632</v>
+      </c>
+      <c r="E44">
+        <v>0.04018383441836144</v>
+      </c>
+      <c r="F44">
+        <v>-0.01906372690177598</v>
+      </c>
+      <c r="G44">
+        <v>-0.1173281770972087</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0003746851061799248</v>
+        <v>0.009666428005062537</v>
       </c>
       <c r="C46">
-        <v>-0.009564149902490328</v>
+        <v>0.01498407336363045</v>
       </c>
       <c r="D46">
-        <v>-0.01284025067139385</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01376876889358059</v>
+      </c>
+      <c r="E46">
+        <v>0.006177345294674032</v>
+      </c>
+      <c r="F46">
+        <v>-0.01672854843954502</v>
+      </c>
+      <c r="G46">
+        <v>-0.1113458351058983</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07336435967880842</v>
+        <v>0.08384849101861622</v>
       </c>
       <c r="C47">
-        <v>-0.06435349432734462</v>
+        <v>0.07039329887827953</v>
       </c>
       <c r="D47">
-        <v>-0.001213549170598661</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004731886517864836</v>
+      </c>
+      <c r="E47">
+        <v>-0.007448816282486091</v>
+      </c>
+      <c r="F47">
+        <v>-0.04265389016136267</v>
+      </c>
+      <c r="G47">
+        <v>-0.08609612313547589</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01166195135341376</v>
+        <v>0.01706137788913501</v>
       </c>
       <c r="C48">
-        <v>-0.009975537140611059</v>
+        <v>0.01106463088895986</v>
       </c>
       <c r="D48">
-        <v>-0.001561904868211469</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.003656389996706573</v>
+      </c>
+      <c r="E48">
+        <v>0.01438713336348954</v>
+      </c>
+      <c r="F48">
+        <v>-0.02221692107496874</v>
+      </c>
+      <c r="G48">
+        <v>-0.1076486540888467</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07911425386851219</v>
+        <v>0.07784960573256007</v>
       </c>
       <c r="C50">
-        <v>-0.05939037696204275</v>
+        <v>0.06605890439482086</v>
       </c>
       <c r="D50">
-        <v>-0.0005638687972145917</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001059857209919833</v>
+      </c>
+      <c r="E50">
+        <v>-0.0003480741112149408</v>
+      </c>
+      <c r="F50">
+        <v>-0.04216357883682843</v>
+      </c>
+      <c r="G50">
+        <v>-0.09638215911870808</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01949658852174315</v>
+        <v>0.01208853669871795</v>
       </c>
       <c r="C51">
-        <v>-0.03798772410351425</v>
+        <v>0.03137053243990393</v>
       </c>
       <c r="D51">
-        <v>-0.01194199711288439</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01252550703088654</v>
+      </c>
+      <c r="E51">
+        <v>0.04105949767786803</v>
+      </c>
+      <c r="F51">
+        <v>0.007622892205490338</v>
+      </c>
+      <c r="G51">
+        <v>-0.1079232112080761</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1017186840039238</v>
+        <v>0.08621178321767825</v>
       </c>
       <c r="C53">
-        <v>-0.07165369870670568</v>
+        <v>0.08490463692561713</v>
       </c>
       <c r="D53">
-        <v>0.0001471822214798225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003602651764435274</v>
+      </c>
+      <c r="E53">
+        <v>-0.029135172217637</v>
+      </c>
+      <c r="F53">
+        <v>-0.04649482730849568</v>
+      </c>
+      <c r="G53">
+        <v>-0.08868719421887576</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02747709669388296</v>
+        <v>0.03200217140492575</v>
       </c>
       <c r="C54">
-        <v>-0.001696403332730659</v>
+        <v>0.013720435084861</v>
       </c>
       <c r="D54">
-        <v>0.005441953012968122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0005712403015691264</v>
+      </c>
+      <c r="E54">
+        <v>0.02780966797164738</v>
+      </c>
+      <c r="F54">
+        <v>-0.01287293863090565</v>
+      </c>
+      <c r="G54">
+        <v>-0.110156261641079</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07717124305909982</v>
+        <v>0.08102928580120296</v>
       </c>
       <c r="C55">
-        <v>-0.06209723012251105</v>
+        <v>0.06818034553195296</v>
       </c>
       <c r="D55">
-        <v>-0.0002861658254269626</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005842729759995935</v>
+      </c>
+      <c r="E55">
+        <v>-0.03296713245425961</v>
+      </c>
+      <c r="F55">
+        <v>-0.04626871794527194</v>
+      </c>
+      <c r="G55">
+        <v>-0.0654593604571005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1539177764166836</v>
+        <v>0.1423749626204066</v>
       </c>
       <c r="C56">
-        <v>-0.09045720373588799</v>
+        <v>0.102774067037966</v>
       </c>
       <c r="D56">
-        <v>0.009028704341360206</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01299667341260168</v>
+      </c>
+      <c r="E56">
+        <v>-0.03921034716944074</v>
+      </c>
+      <c r="F56">
+        <v>-0.05726319041155561</v>
+      </c>
+      <c r="G56">
+        <v>-0.05300042374663624</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.009779813551734691</v>
+        <v>0.003652518182270819</v>
       </c>
       <c r="C57">
-        <v>-0.00267053030605937</v>
+        <v>0.003029785771865818</v>
       </c>
       <c r="D57">
-        <v>-0.02167207493467102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02296639619410835</v>
+      </c>
+      <c r="E57">
+        <v>0.02460054738001489</v>
+      </c>
+      <c r="F57">
+        <v>-0.003335458484268414</v>
+      </c>
+      <c r="G57">
+        <v>-0.01224945602789002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04350579088815931</v>
+        <v>0.03751023287830942</v>
       </c>
       <c r="C58">
-        <v>-0.06078430299172487</v>
+        <v>0.02938500298779764</v>
       </c>
       <c r="D58">
-        <v>-0.006750795654120253</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03734650921371864</v>
+      </c>
+      <c r="E58">
+        <v>0.7163288019971322</v>
+      </c>
+      <c r="F58">
+        <v>-0.5888380865224765</v>
+      </c>
+      <c r="G58">
+        <v>0.3088505362468454</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1424356952298128</v>
+        <v>0.1490473048077073</v>
       </c>
       <c r="C59">
-        <v>0.2189517111656897</v>
+        <v>-0.2069840809457399</v>
       </c>
       <c r="D59">
-        <v>0.06160593488373776</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0101071492010447</v>
+      </c>
+      <c r="E59">
+        <v>0.02223416671766681</v>
+      </c>
+      <c r="F59">
+        <v>-0.0142212546514459</v>
+      </c>
+      <c r="G59">
+        <v>-0.03966551326570629</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3131689703981304</v>
+        <v>0.2874653008831994</v>
       </c>
       <c r="C60">
-        <v>-0.08307668305033597</v>
+        <v>0.0958949589814313</v>
       </c>
       <c r="D60">
-        <v>0.003228955901232106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01834810846916465</v>
+      </c>
+      <c r="E60">
+        <v>0.1330470797421628</v>
+      </c>
+      <c r="F60">
+        <v>0.3044344688943198</v>
+      </c>
+      <c r="G60">
+        <v>0.1623057956356113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03340146184985809</v>
+        <v>0.03897956624384047</v>
       </c>
       <c r="C61">
-        <v>-0.06257490569078308</v>
+        <v>0.06182432040964982</v>
       </c>
       <c r="D61">
-        <v>-0.01132664531741722</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.007632971264679799</v>
+      </c>
+      <c r="E61">
+        <v>0.03960961848556296</v>
+      </c>
+      <c r="F61">
+        <v>0.006178272287152132</v>
+      </c>
+      <c r="G61">
+        <v>-0.08803489032479554</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0141284888979037</v>
+        <v>0.01450952504449999</v>
       </c>
       <c r="C63">
-        <v>-0.02798896395435291</v>
+        <v>0.02605465282017531</v>
       </c>
       <c r="D63">
-        <v>-0.01111211984358658</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.009529653139821671</v>
+      </c>
+      <c r="E63">
+        <v>0.01322625615810325</v>
+      </c>
+      <c r="F63">
+        <v>-0.01247049733590582</v>
+      </c>
+      <c r="G63">
+        <v>-0.08800424390177254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04680227335811874</v>
+        <v>0.05063209425492598</v>
       </c>
       <c r="C64">
-        <v>-0.0299082939554395</v>
+        <v>0.04696289599427787</v>
       </c>
       <c r="D64">
-        <v>-0.005543026467353386</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006462098768439078</v>
+      </c>
+      <c r="E64">
+        <v>0.008786485583554942</v>
+      </c>
+      <c r="F64">
+        <v>0.003178762562825553</v>
+      </c>
+      <c r="G64">
+        <v>-0.09471853447248843</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0821440551117425</v>
+        <v>0.07094794026335005</v>
       </c>
       <c r="C65">
-        <v>-0.06530507885226415</v>
+        <v>0.04771990981202089</v>
       </c>
       <c r="D65">
-        <v>-0.01854883287218672</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01936093210029262</v>
+      </c>
+      <c r="E65">
+        <v>0.06461413301616828</v>
+      </c>
+      <c r="F65">
+        <v>0.007765863863899529</v>
+      </c>
+      <c r="G65">
+        <v>-0.03917478018175372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05895663597194414</v>
+        <v>0.04866074748109323</v>
       </c>
       <c r="C66">
-        <v>-0.1225389903164113</v>
+        <v>0.1001003573751686</v>
       </c>
       <c r="D66">
-        <v>-0.02493929765511349</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01485557007634926</v>
+      </c>
+      <c r="E66">
+        <v>0.0680411609436008</v>
+      </c>
+      <c r="F66">
+        <v>0.02160864790914095</v>
+      </c>
+      <c r="G66">
+        <v>-0.09495875097347621</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06373413105978358</v>
+        <v>0.05379794011518029</v>
       </c>
       <c r="C67">
-        <v>-0.02381561431589558</v>
+        <v>0.02843614321301447</v>
       </c>
       <c r="D67">
-        <v>0.008541647222374089</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005366289512925108</v>
+      </c>
+      <c r="E67">
+        <v>0.006395163035204635</v>
+      </c>
+      <c r="F67">
+        <v>-0.01083251528050152</v>
+      </c>
+      <c r="G67">
+        <v>-0.07702218631966186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1070428999122288</v>
+        <v>0.1521077146454471</v>
       </c>
       <c r="C68">
-        <v>0.2807522316545067</v>
+        <v>-0.273107753319762</v>
       </c>
       <c r="D68">
-        <v>0.04851819550376678</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005589241028523718</v>
+      </c>
+      <c r="E68">
+        <v>-0.006338627931428037</v>
+      </c>
+      <c r="F68">
+        <v>-0.04328926383112523</v>
+      </c>
+      <c r="G68">
+        <v>-0.02163429456066362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08225346732215087</v>
+        <v>0.08441107929577915</v>
       </c>
       <c r="C69">
-        <v>-0.05884276497862315</v>
+        <v>0.07295056784987226</v>
       </c>
       <c r="D69">
-        <v>0.005088924533075755</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008136417298607611</v>
+      </c>
+      <c r="E69">
+        <v>-0.01254753511007138</v>
+      </c>
+      <c r="F69">
+        <v>-0.0196618872865275</v>
+      </c>
+      <c r="G69">
+        <v>-0.1013495081333095</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1162390359747368</v>
+        <v>0.1389613339072655</v>
       </c>
       <c r="C71">
-        <v>0.227480106826807</v>
+        <v>-0.2362894236351425</v>
       </c>
       <c r="D71">
-        <v>0.05168316421387641</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002857743528144557</v>
+      </c>
+      <c r="E71">
+        <v>0.02223099129397898</v>
+      </c>
+      <c r="F71">
+        <v>-0.0385503306655531</v>
+      </c>
+      <c r="G71">
+        <v>-0.06363604379808761</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.07201307671229666</v>
+        <v>0.08617387811850541</v>
       </c>
       <c r="C72">
-        <v>-0.06422026119673249</v>
+        <v>0.05993297090619729</v>
       </c>
       <c r="D72">
-        <v>0.00395660789535665</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00685281552631894</v>
+      </c>
+      <c r="E72">
+        <v>0.008865473936514398</v>
+      </c>
+      <c r="F72">
+        <v>0.02377169670446296</v>
+      </c>
+      <c r="G72">
+        <v>-0.08489247112491673</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4354551704581193</v>
+        <v>0.3725606965164892</v>
       </c>
       <c r="C73">
-        <v>-0.09471716672863784</v>
+        <v>0.0882383449485208</v>
       </c>
       <c r="D73">
-        <v>0.01106861419846756</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.03147251064098268</v>
+      </c>
+      <c r="E73">
+        <v>0.2868050119226359</v>
+      </c>
+      <c r="F73">
+        <v>0.5307225234941217</v>
+      </c>
+      <c r="G73">
+        <v>0.3315779279125717</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1186745250496346</v>
+        <v>0.1094939048504324</v>
       </c>
       <c r="C74">
-        <v>-0.116396519039431</v>
+        <v>0.102918315849484</v>
       </c>
       <c r="D74">
-        <v>-0.001615884394634824</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009424449550822325</v>
+      </c>
+      <c r="E74">
+        <v>-0.01231313667474272</v>
+      </c>
+      <c r="F74">
+        <v>-0.05950637974364544</v>
+      </c>
+      <c r="G74">
+        <v>-0.07083499905535684</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2608317511017795</v>
+        <v>0.252954367324183</v>
       </c>
       <c r="C75">
-        <v>-0.127964452515034</v>
+        <v>0.1459862918371388</v>
       </c>
       <c r="D75">
-        <v>0.02223595466912991</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03219313451545953</v>
+      </c>
+      <c r="E75">
+        <v>-0.1026532354899496</v>
+      </c>
+      <c r="F75">
+        <v>-0.1297963511541784</v>
+      </c>
+      <c r="G75">
+        <v>-0.02288277354995151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1236547127815861</v>
+        <v>0.1227349539677398</v>
       </c>
       <c r="C76">
-        <v>-0.1055944541965678</v>
+        <v>0.1057551993125177</v>
       </c>
       <c r="D76">
-        <v>0.007090417796257171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01828545925389175</v>
+      </c>
+      <c r="E76">
+        <v>-0.0438520471917182</v>
+      </c>
+      <c r="F76">
+        <v>-0.0799249971186793</v>
+      </c>
+      <c r="G76">
+        <v>-0.06495246154237143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.06481576537113935</v>
+        <v>0.06715859946108493</v>
       </c>
       <c r="C77">
-        <v>-0.06033789287177115</v>
+        <v>0.06421441344437898</v>
       </c>
       <c r="D77">
-        <v>-0.01168409921767139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01070485698116559</v>
+      </c>
+      <c r="E77">
+        <v>0.0546864139702693</v>
+      </c>
+      <c r="F77">
+        <v>-0.03975084079469027</v>
+      </c>
+      <c r="G77">
+        <v>-0.1191809965397239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04929178129255782</v>
+        <v>0.04117281015680208</v>
       </c>
       <c r="C78">
-        <v>-0.05183664077480149</v>
+        <v>0.052740293318855</v>
       </c>
       <c r="D78">
-        <v>-0.007725573593602356</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.009735693503436525</v>
+      </c>
+      <c r="E78">
+        <v>0.05615463413166578</v>
+      </c>
+      <c r="F78">
+        <v>0.02447654171920761</v>
+      </c>
+      <c r="G78">
+        <v>-0.0954956743558372</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001176842813694157</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-9.685796354273361e-05</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.001016884120599092</v>
+      </c>
+      <c r="E79">
+        <v>0.008064730923790358</v>
+      </c>
+      <c r="F79">
+        <v>-0.002088714393786121</v>
+      </c>
+      <c r="G79">
+        <v>-0.009092490972190868</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.05844394931693969</v>
+        <v>0.04121160012811106</v>
       </c>
       <c r="C80">
-        <v>-0.06399071349989333</v>
+        <v>0.04761932882844325</v>
       </c>
       <c r="D80">
-        <v>-0.01711544221102406</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01528895572593283</v>
+      </c>
+      <c r="E80">
+        <v>0.0424775972636497</v>
+      </c>
+      <c r="F80">
+        <v>-0.003754369099287941</v>
+      </c>
+      <c r="G80">
+        <v>-0.05173326801723226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1385055760670807</v>
+        <v>0.1389640394321973</v>
       </c>
       <c r="C81">
-        <v>-0.07640150087847408</v>
+        <v>0.09370036719886632</v>
       </c>
       <c r="D81">
-        <v>0.009137887474547402</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01567517465784108</v>
+      </c>
+      <c r="E81">
+        <v>-0.06631163824700656</v>
+      </c>
+      <c r="F81">
+        <v>-0.1038438135660781</v>
+      </c>
+      <c r="G81">
+        <v>-0.03681285224629648</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.05169102799519579</v>
+        <v>0.1708237579405952</v>
       </c>
       <c r="C82">
-        <v>-0.03457148270676016</v>
+        <v>0.120652739087844</v>
       </c>
       <c r="D82">
-        <v>-0.0001823107149158248</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01869331881626699</v>
+      </c>
+      <c r="E82">
+        <v>-0.1802270848023714</v>
+      </c>
+      <c r="F82">
+        <v>-0.0518483352233147</v>
+      </c>
+      <c r="G82">
+        <v>-0.02506464602440923</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02996074669843994</v>
+        <v>0.02826063043179572</v>
       </c>
       <c r="C83">
-        <v>-0.01832237958583512</v>
+        <v>0.03318190617558309</v>
       </c>
       <c r="D83">
-        <v>-0.004446964711552324</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.00802741978961128</v>
+      </c>
+      <c r="E83">
+        <v>0.03635894739138611</v>
+      </c>
+      <c r="F83">
+        <v>0.01017881232999842</v>
+      </c>
+      <c r="G83">
+        <v>-0.06145734029809238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2517903356849218</v>
+        <v>0.213447178498173</v>
       </c>
       <c r="C85">
-        <v>-0.1282978735645337</v>
+        <v>0.1293705616625066</v>
       </c>
       <c r="D85">
-        <v>0.0109337413246282</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01885970049638033</v>
+      </c>
+      <c r="E85">
+        <v>-0.1079997784903111</v>
+      </c>
+      <c r="F85">
+        <v>-0.05774386679144046</v>
+      </c>
+      <c r="G85">
+        <v>0.02002174049886409</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.0101319006609731</v>
+        <v>0.01037382886463434</v>
       </c>
       <c r="C86">
-        <v>-0.0212400164358605</v>
+        <v>0.02548124199172972</v>
       </c>
       <c r="D86">
-        <v>-0.009383376943193756</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0150015662127555</v>
+      </c>
+      <c r="E86">
+        <v>0.07582742054701078</v>
+      </c>
+      <c r="F86">
+        <v>0.01151742947689081</v>
+      </c>
+      <c r="G86">
+        <v>-0.1710075154553757</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01473821655613804</v>
+        <v>0.0199076357789055</v>
       </c>
       <c r="C87">
-        <v>-0.02082117052226775</v>
+        <v>0.01464325420555771</v>
       </c>
       <c r="D87">
-        <v>-0.01016313612580981</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01462926674714647</v>
+      </c>
+      <c r="E87">
+        <v>0.09971658658787605</v>
+      </c>
+      <c r="F87">
+        <v>-0.03562355941830978</v>
+      </c>
+      <c r="G87">
+        <v>-0.1102790947246129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.09559892121726768</v>
+        <v>0.08964752630952012</v>
       </c>
       <c r="C88">
-        <v>-0.06090951635889564</v>
+        <v>0.06219273214869456</v>
       </c>
       <c r="D88">
-        <v>-0.02489439753510664</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02312073555424278</v>
+      </c>
+      <c r="E88">
+        <v>0.00612289397350503</v>
+      </c>
+      <c r="F88">
+        <v>-0.01963347573515388</v>
+      </c>
+      <c r="G88">
+        <v>-0.1060697973235022</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1992982071347575</v>
+        <v>0.2168636812491407</v>
       </c>
       <c r="C89">
-        <v>0.373750634238859</v>
+        <v>-0.3675940250024248</v>
       </c>
       <c r="D89">
-        <v>0.07834615817529418</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0007542447459177929</v>
+      </c>
+      <c r="E89">
+        <v>-0.02458682484204464</v>
+      </c>
+      <c r="F89">
+        <v>-0.01393127044782836</v>
+      </c>
+      <c r="G89">
+        <v>-0.09219516236863443</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1772125600803639</v>
+        <v>0.2011051207846591</v>
       </c>
       <c r="C90">
-        <v>0.3395798863934422</v>
+        <v>-0.3201424093787131</v>
       </c>
       <c r="D90">
-        <v>0.07605816180548337</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004930568794875186</v>
+      </c>
+      <c r="E90">
+        <v>-0.01870524606981173</v>
+      </c>
+      <c r="F90">
+        <v>-0.05222827268123282</v>
+      </c>
+      <c r="G90">
+        <v>-0.05103021285291272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.202584737338788</v>
+        <v>0.1888927864504648</v>
       </c>
       <c r="C91">
-        <v>-0.1112488314157837</v>
+        <v>0.1312689618282894</v>
       </c>
       <c r="D91">
-        <v>0.01581042758809195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02370676524456931</v>
+      </c>
+      <c r="E91">
+        <v>-0.08870305669569963</v>
+      </c>
+      <c r="F91">
+        <v>-0.1047601814866299</v>
+      </c>
+      <c r="G91">
+        <v>-0.04051142535535236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1803301672196286</v>
+        <v>0.1835102920079661</v>
       </c>
       <c r="C92">
-        <v>0.2622862206339029</v>
+        <v>-0.2741805800459584</v>
       </c>
       <c r="D92">
-        <v>0.09896533192409873</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03952897413272618</v>
+      </c>
+      <c r="E92">
+        <v>0.01101665710488975</v>
+      </c>
+      <c r="F92">
+        <v>-0.06861404422800274</v>
+      </c>
+      <c r="G92">
+        <v>-0.07917683283450537</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1904423393154441</v>
+        <v>0.2241176636109355</v>
       </c>
       <c r="C93">
-        <v>0.3203798093708308</v>
+        <v>-0.3186004206453354</v>
       </c>
       <c r="D93">
-        <v>0.07925087429204235</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01054550386762694</v>
+      </c>
+      <c r="E93">
+        <v>0.001718394847673075</v>
+      </c>
+      <c r="F93">
+        <v>-0.03510472833909399</v>
+      </c>
+      <c r="G93">
+        <v>-0.05354615512008929</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2793119364295013</v>
+        <v>0.3375721755147482</v>
       </c>
       <c r="C94">
-        <v>-0.1402542835096498</v>
+        <v>0.1968588100190166</v>
       </c>
       <c r="D94">
-        <v>0.0007816961178969143</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.0306906418822273</v>
+      </c>
+      <c r="E94">
+        <v>-0.3919715311490833</v>
+      </c>
+      <c r="F94">
+        <v>-0.3538863646669813</v>
+      </c>
+      <c r="G94">
+        <v>0.3703211358020957</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.07357505815032939</v>
+        <v>0.0799202331829296</v>
       </c>
       <c r="C95">
-        <v>-0.09258483707848672</v>
+        <v>0.08936547435214105</v>
       </c>
       <c r="D95">
-        <v>-0.001567608967413993</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.007330749357537563</v>
+      </c>
+      <c r="E95">
+        <v>0.1354391316517883</v>
+      </c>
+      <c r="F95">
+        <v>0.134168509086988</v>
+      </c>
+      <c r="G95">
+        <v>-0.1444931737756525</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2091291797713217</v>
+        <v>0.1951758520878646</v>
       </c>
       <c r="C98">
-        <v>-0.04702175797519995</v>
+        <v>0.04593392309332147</v>
       </c>
       <c r="D98">
-        <v>0.02860721464092373</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.008653569271050484</v>
+      </c>
+      <c r="E98">
+        <v>0.137889034233393</v>
+      </c>
+      <c r="F98">
+        <v>0.1959747111833336</v>
+      </c>
+      <c r="G98">
+        <v>0.06785802475760666</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01222674671400817</v>
+        <v>0.007351727486464932</v>
       </c>
       <c r="C101">
-        <v>-0.01887305959177942</v>
+        <v>0.02007344735558374</v>
       </c>
       <c r="D101">
-        <v>-0.009235123041806287</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01068373223610069</v>
+      </c>
+      <c r="E101">
+        <v>0.01381097116994836</v>
+      </c>
+      <c r="F101">
+        <v>-0.01136981485443959</v>
+      </c>
+      <c r="G101">
+        <v>-0.1013778944881359</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1246355305634406</v>
+        <v>0.1239972193276723</v>
       </c>
       <c r="C102">
-        <v>-0.071931448984574</v>
+        <v>0.09683464694035879</v>
       </c>
       <c r="D102">
-        <v>-0.005386115911328293</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0006315851987131465</v>
+      </c>
+      <c r="E102">
+        <v>-0.05077150481420709</v>
+      </c>
+      <c r="F102">
+        <v>-0.01972357679222316</v>
+      </c>
+      <c r="G102">
+        <v>-0.01799253908613902</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.09951696548856954</v>
+        <v>0.01967789592391059</v>
       </c>
       <c r="C104">
-        <v>0.1953265561175345</v>
+        <v>-0.02827704028039574</v>
       </c>
       <c r="D104">
-        <v>-0.966668689967448</v>
+        <v>-0.9856842216311559</v>
+      </c>
+      <c r="E104">
+        <v>-0.091906609799947</v>
+      </c>
+      <c r="F104">
+        <v>-0.01890887016862975</v>
+      </c>
+      <c r="G104">
+        <v>0.03689003320429907</v>
       </c>
     </row>
   </sheetData>
